--- a/resources/KernelStartup/kernel-starup.xlsx
+++ b/resources/KernelStartup/kernel-starup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5551d33c9ef5c70e/Blog/source/resources/KernelStartup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="138" documentId="11_AD4DA82427541F7ACA7EB8DAF009023C6BE8DE12" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{985C9268-5F37-41E0-B44C-EB8B4559DF7A}"/>
+  <xr:revisionPtr revIDLastSave="139" documentId="11_AD4DA82427541F7ACA7EB8DAF009023C6BE8DE12" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA4DBD75-31E1-4512-B289-3EC0BF5C713F}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3135" yWindow="21480" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1512,10 +1512,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>将扁平设备树（DTB）转换为内核device_node结构体树，构建设备拓扑。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>解析设备树的CPU节点，生成CPU逻辑ID与物理ID的映射表，支持SMP调度。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1664,6 +1660,10 @@
   </si>
   <si>
     <t>kernel_init_freeable();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将设备树（DTB）转换为内核device_node结构体树，构建设备拓扑。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2207,8 +2207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -2249,10 +2249,10 @@
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>288</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="79.2" x14ac:dyDescent="0.35">
@@ -2343,13 +2343,13 @@
     </row>
     <row r="15" spans="1:3" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B15" s="13" t="s">
         <v>257</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="46.8" x14ac:dyDescent="0.35">
@@ -2364,7 +2364,7 @@
     <row r="17" spans="1:3" ht="46.8" x14ac:dyDescent="0.35">
       <c r="A17" s="20"/>
       <c r="B17" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C17" s="21" t="s">
         <v>259</v>
@@ -2373,7 +2373,7 @@
     <row r="18" spans="1:3" ht="46.8" x14ac:dyDescent="0.35">
       <c r="A18" s="20"/>
       <c r="B18" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C18" s="21" t="s">
         <v>260</v>
@@ -2382,7 +2382,7 @@
     <row r="19" spans="1:3" ht="46.8" x14ac:dyDescent="0.35">
       <c r="A19" s="20"/>
       <c r="B19" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C19" s="21"/>
     </row>
@@ -2426,7 +2426,7 @@
         <v>22</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
@@ -2444,7 +2444,7 @@
         <v>24</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
@@ -2453,7 +2453,7 @@
         <v>25</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="31.2" x14ac:dyDescent="0.35">
@@ -2462,7 +2462,7 @@
         <v>26</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="109.2" x14ac:dyDescent="0.35">
@@ -2471,7 +2471,7 @@
         <v>27</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
@@ -2480,7 +2480,7 @@
         <v>26</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="110.4" x14ac:dyDescent="0.35">
@@ -2489,7 +2489,7 @@
         <v>28</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="31.2" x14ac:dyDescent="0.35">
@@ -2507,7 +2507,7 @@
         <v>30</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="31.2" x14ac:dyDescent="0.35">
@@ -2516,7 +2516,7 @@
         <v>31</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>266</v>
+        <v>291</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="31.2" x14ac:dyDescent="0.35">
@@ -2525,7 +2525,7 @@
         <v>32</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="31.2" x14ac:dyDescent="0.35">
@@ -2534,7 +2534,7 @@
         <v>33</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
@@ -2543,7 +2543,7 @@
         <v>34</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
@@ -2552,7 +2552,7 @@
         <v>35</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="31.2" x14ac:dyDescent="0.35">
@@ -2561,7 +2561,7 @@
         <v>36</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
@@ -2570,16 +2570,16 @@
         <v>37</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="31.2" x14ac:dyDescent="0.35">
       <c r="A41" s="15"/>
       <c r="B41" s="16" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="46.8" x14ac:dyDescent="0.35">
@@ -3418,10 +3418,10 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B147" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="C147" s="2" t="s">
         <v>290</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="31.2" x14ac:dyDescent="0.35">
